--- a/Documentation/LOP.xlsx
+++ b/Documentation/LOP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\FG9326M8GTEI4\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E5C3C-5828-4956-92AB-E3F5709D130B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0449AE5F-9B25-4556-AE42-C026A4A8E449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>De facut diagrama general FBL</t>
   </si>
   <si>
-    <t>De facut diagrama general DTC</t>
-  </si>
-  <si>
     <t>De facut diagrama general DCM/ISO-TP</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>De facut diagrama NVM FEE</t>
   </si>
   <si>
-    <t>De facut diagrama HC05 wake-up to CAN</t>
-  </si>
-  <si>
     <t>De facut diagrama reverse camera</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>De facut diagrama diagmaster</t>
   </si>
   <si>
-    <t xml:space="preserve">De facut diagrama SSI </t>
-  </si>
-  <si>
     <t>De facut diagrama multi core</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>143 ms</t>
+  </si>
+  <si>
+    <t>De verificat diagrama DCM/ISO-TP</t>
+  </si>
+  <si>
+    <t>De facut diagrama architectura sistem</t>
+  </si>
+  <si>
+    <t>De facut diagrama general DTC + CAN reporting + ICM</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,11 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,13 +502,13 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -516,103 +523,103 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -625,7 +632,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,68 +643,68 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
